--- a/src/test/resources/Excel/ExcelOperation1.xlsx
+++ b/src/test/resources/Excel/ExcelOperation1.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">9552791457</t>
   </si>
   <si>
-    <t xml:space="preserve">Adinath@1234</t>
+    <t xml:space="preserve">Amazon@1234</t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -249,7 +249,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Adinath@1234"/>
+    <hyperlink ref="B2" r:id="rId1" display="Amazon@1234"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
